--- a/result.xlsx
+++ b/result.xlsx
@@ -452,402 +452,362 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.35.1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Фильтрация сетевого трафика, в том числе между внешними сетями и внутренними, в том числе при организации сетевого обмена с сетями связи общего пользования</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.1.9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Предоставление пользователям прав доступа к объектам доступа, основываясь на задачах, решаемых пользователями</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.13.2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Ограничение на использование удаленного доступа в соответствии с задачами (функциями), для решения которых такой доступ необходим, и предоставление удаленного доступа для каждого разрешенного вида удаленного доступа</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.13.3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Предоставление удаленного доступа только тем пользователям, которым он необходим для выполнения установленных должностных обязанностей (функций)</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.13.5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Контроль удаленного доступа пользователей (процессов запускаемых от имени пользователей) к объектам доступа до начала информационного взаимодействия (передачи защищаемой информации)</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.13.1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Установление (в том числе документальное) видов доступа, разрешенных для удаленного доступа к объектам доступа</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.35.2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Обеспечение доверенных канала, маршрута внутри инфраструктуры между администратором, пользователем и средствами защиты информации (функциями безопасности)</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.35.5</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Обеспечение подлинности сетевых соединений (сеансов взаимодействия) внутри инфраструктуры, в том числе для защиты от подмены сетевых устройств и сервисов</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.35.4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t xml:space="preserve">Отключение неиспользуемых сетевых протоколов компонентами инфраструктуры, хостовой операционной системы, вычислительной сети </t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.2.2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Реализация ролевого метода управления доступом, предусматривающего управление доступом субъектов доступа к объектам доступа на основе ролей субъектов доступа (совокупность действий и обязанностей, связанных с определенным видом деятельности)</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.2.3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Реализация мандатного метода управления доступом, предусматривающего управление доступом субъектов доступа к объектам доступа на основе сопоставления классификационных меток каждого субъекта доступа и каждого объекта доступа, отражающих классификационные уровни субъектов доступа и объектов доступа, являющиеся комбинациями иерархических и неиерархических категорий</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.2.1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Реализация дискреционного метода управления доступом, предусматривающего управление доступом субъектов доступа к объектам доступа на основе идентификационной информации субъекта и для каждого объекта доступа – списка, содержащего набор субъектов доступа (групп субъектов) и ассоциированных с ними типов доступа</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.4.1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Разделение полномочий (ролей) пользователей, администраторов и лиц, обеспечивающих функционирование информационной системы, в соответствии с их должностными обязанностями (функциями). Определение в организационно-распорядительных документах по защите информации (документирование) полномочий (ролей) пользователей, администраторов и лиц, обеспечивающих функционирование информационной системы.</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.27.1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Обеспечение подлинности сетевых соединений (сеансов взаимодействия), в том числе для защиты от подмены сетевых устройств и сервисов (защита от атак типа «человек посередине»)</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.2.2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Обеспечение взаимодействия информационной системы и (или) ее сегментов с иными информационными системами и сетями только через сетевые интерфейсы, которые обеспечивают управление (контроль) информационными потоками с использованием средств защиты информации (управляемые (контролируемые) сетевые интерфейсы), установленных на физическом и (или) логическом периметре информационной системы или ее отдельных сегментов (маршрутизаторов, межсетевых экранов, коммутаторов, прокси-серверов, шлюзов безопасности, средств построения виртуальных частных сетей и иных средств защиты информации)</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.6.2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Блокирование устройства, с которого предпринимаются попытки доступа, и (или) учетной записи пользователя при превышении пользователем ограничения количества неуспешных попыток входа</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.19.1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t xml:space="preserve">Защита информации от раскрытия, модификации и навязывания (ввода ложной информации) при ее передаче (подготовке к передаче) по каналам связи, имеющим выход за пределы контролируемой зоны </t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>АУД.2.1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t xml:space="preserve">Выявление (поиск) уязвимостей, связанных с ошибками кода в программном (микропрограммном) обеспечении (общесистемном, прикладном, специальном), а также программном обеспечении средств защиты информации, правильностью установки и настройки средств защиты информации, технических средств и программного обеспечения, а также корректностью работы средств защиты информации при их взаимодействии с техническими средствами и программным обеспечением </t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>АВЗ.1.5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Проверка в масштабе времени, близком к реальному, объектов (файлов) из внешних источников (съемных машинных носителей информации, сетевых подключений, в том числе к сетям общего пользования, и других внешних источников) при загрузке, открытии или исполнении таких файлов</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>АВЗ.2.1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Применение средств антивирусной защиты на прокси-серверах, почтовых шлюза, почтовых серверах и иных точках доступа в информационную систему, подверженных внедрению (заражению) вредоносными компьютерными программами (вирусами) через съемные машинные носители информации или сетевые подключения, в том числе к сетям общего пользования (вложения электронной почты, веб- и другие сетевые сервисы)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -856,1098 +816,988 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>АВЗ.1.1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t xml:space="preserve">Применение средств антивирусной защиты на автоматизированных рабочих местах, серверах, периметральных средствах защиты информации (средствах межсетевого экранирования, прокси-серверах, почтовых шлюзах и других средствах защиты информации), мобильных технических средствах и иных точках доступа в информационной системе, подверженных внедрению (заражению) вредоносными компьютерными программами (вирусами) через съемные машинные носители информации или сетевые подключения, в том числе к сетям общего пользования (вложения электронной почты, веб- и другие сетевые сервисы) </t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.14.2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Определение типов прикладного программного обеспечения, к которым разрешен доступ авторизованным (уполномоченным) пользователям из внешних информационных систем</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.5.1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Назначение прав и привилегий пользователям и запускаемым от их имени процессам, администраторам и лицам, обеспечивающим функционирование, минимально необходимых для выполнения ими своих должностных обязанностей (функций), и санкционирование доступа к объектам доступа в соответствии с минимально необходимыми правами и привилегиями</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.14.1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Предоставление доступа только авторизованным (уполномоченным) пользователям</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.35.7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Ц</t>
-        </is>
+          <t>Семантический и статистический анализ сетевого трафика вычислительной сети</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.35.3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t xml:space="preserve">Контроль передачи служебных информационных сообщений, передаваемых в сетях, хостовой операционной системы, по составу, объёму и иным характеристикам </t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.35.6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Обеспечение изоляции потоков данных, передаваемых и обрабатываемых компонентами инфраструктуры и сетевых потоков вычислительной сети</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.1.3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Верификация пользователя (проверка личности пользователя, его должностных (функциональных) обязанностей) при заведении учетной записи пользователя</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.1.2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Объединение учетных записей в группы (при необходимости)</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.13.4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Мониторинг и контроль удаленного доступа на предмет выявления несанкционированного удаленного доступа к объектам доступа</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.1.5</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Пересмотр и, при необходимости, корректировка учетных записей пользователей с периодичностью, определяемой субъектом</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.1.4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Заведение, активация, блокирование и уничтожение учетных записей пользователей</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.1.1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Определение типа учетной записи (внутреннего пользователя, внешнего пользователя; системная, приложения; гостевая (анонимная), временная и (или) иные типы записей)</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.1.6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Регламентация и контроль использования гостевых (анонимных) и временных учетных записей пользователей, а также привилегированных учетных записей администраторов</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>УПД.1.8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Уничтожение временных учетных записей пользователей, предоставленных для однократного (ограниченного по времени) выполнения задач</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ИАФ.1.4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Многофакторная (двухфакторная) аутентификация пользователей</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>УПД.1.7</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Оповещение администратора, осуществляющего управление учетными записями пользователей, об изменении сведений о пользователях, их ролях, обязанностях, полномочиях, ограничениях</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.12.1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Изоляция процессов (выполнение программ) в выделенной области памяти</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>АВЗ.3.1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Проверку в масштабе времени, близком к реальному, объектов (файлов) архивных, исполняемых и зашифрованных при загрузке, открытии или исполнении таких файлов.</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>АУД.2.3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t xml:space="preserve">Устранение выявленных уязвимостей, в том числе путем установки обновлений программного обеспечения средств защиты информации, общесистемного программного обеспечения, прикладного программного обеспечения или микропрограммного обеспечения технических средств </t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>АУД.2.2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t xml:space="preserve">Разработка по результатам выявления (поиска) уязвимостей отчетов с описанием выявленных уязвимостей и планом мероприятий по их устранению; анализ отчетов с результатами поиска уязвимостей и оценки достаточности реализованных мер защиты информации </t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>АУД.2.4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t xml:space="preserve">Информирование должностных лиц оператора (пользователей, администраторов, подразделения по защите информации) о результатах поиска уязвимостей и оценки достаточности реализованных мер защиты информации </t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ИАФ.4.2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Выдача средств аутентификации пользователям; генерация и выдача начальной аутентификационной информации (начальных значений средств аутентификации)</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ИАФ.1.3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Аутентификация пользователей с применением одноразовых паролей</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ИАФ.5.1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t xml:space="preserve">Обеспечение однозначной идентификации и аутентификации пользователей для всех видов доступа, кроме тех видов доступа, которые определяются как действия, разрешенные до идентификации и аутентификации. </t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ИАФ.1.1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Аутентификация пользователей с применением логина и пароля</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ИАФ.1.2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Аутентификация пользователей с применением аппаратных средств (токенов)</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.28.1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t xml:space="preserve">Определение объектов или типов информации, для которых требуется обеспечение неотказуемости отправки (например, сообщения электронной почты </t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.29.1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>К</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t xml:space="preserve">Определение объектов или типов информации, для которых требуется обеспечение неотказуемости получения (сообщения электронной почты) </t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>АУД.5.1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Применение систем анализа сетевого трафика, предназначенных для перехвата потоков данных и обнаружения признаков сложных, чаще всего целевых атак</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>196</v>
+        <v>69</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.3.2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t>Контроль доступа пользователей к процессу загрузки операционной системы</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>УПД.6.1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>А</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Ф</t>
-        </is>
+          <t xml:space="preserve">Регламентация и контроль количества неуспешных попыток входа </t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ОЦЛ.4.2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t>Вводимые данные должны проверяться на наличие конструкций, которые могут быть интерпретированы программно-техническими средствами информационной системы как исполняемые команды</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>АВЗ.1.6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t>Оповещение администраторов безопасности в масштабе времени, близком к реальному, об обнаружении вредоносных компьютерных программ (вирусов)</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗТС.2.1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t>Обеспечение контролируемой зоны, в пределах которой постоянно размещаются стационарные технические средства, обрабатывающие информацию, и средства защиты информации, а также средства обеспечения функционирования</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗНИ.7.3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t>Запрет подключения носителей информации, подключение которых к информационной системе не разрешено</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>АВЗ.1.7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t xml:space="preserve">Определение и выполнение действий по реагированию на обнаружение в информационной системе объектов, подвергшихся заражению вредоносными компьютерными программами (вирусами) </t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>УПД.11.1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t>Регламентация и контроль действий пользователей, разрешенных до прохождения ими процедур идентификации и аутентификации, и запрет действий пользователей, не включенных в перечень разрешенных действий, до прохождения ими процедур идентификации и аутентификации</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>УПД.14.4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t>Определение порядка предоставления доступа авторизованными (уполномоченным) пользователями из внешних информационных систем</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ОПС.2.5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t>Определение и применение параметров настройки компонентов программного обеспечения, включая программные компоненты средств защиты информации, обеспечивающих реализацию мер защиты информации, а также устранение возможных уязвимостей информационной системы, приводящих к возникновению угроз безопасности информации</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗИС.26.1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t xml:space="preserve">Аутентификация сервера, являющегося источником ответов на запросы (сервер доменных имен или DNS\002сервер) по определению сетевых адресов (IP-адресов) по сетевым именам (доменные имена) </t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>УПД.14.5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t>Определение порядка обработки, хранения и передачи информации с использованием внешних информационных систем</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ОПО.2.1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Д</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Т</t>
-        </is>
+          <t>Проведение проверки целостности программного обеспечения путем сверки контрольных сумм, предоставляемых разработчиком</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ОПО.1.1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Проведение поиска и получение обновлений программного обеспечения от доверенного источника</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.31.1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Выявление и анализ скрытых каналов передачи информации для определения параметров передачи информации, которые могут использоваться для скрытого хранения информации и скрытой передачи информации за пределы информационной системы</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗИС.26.2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve"> Аутентификация сервера, являющегося источником ответов на запросы (кэширующийDNS-сервер) по определению сетевых имен (доменных имен) по сетевым адресам (IP-адресам) </t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УПД.14.3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Определение системных учетных записей, используемых в рамках данного взаимодействия</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.1.1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Сбор и первичная обработка информации, поступающей от источников событий информационной безопасности </t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УКФ.3.2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Установка (инсталляция) в информационной системе программного обеспечения и (или) его компонентов должна осуществляться только от имени администратора</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.32.1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Ограничение на использование в информационной системе беспроводных соединений (в частности 802.11хWi-Fi, 802.15.1 Bluetooth, 802.22WRAN, IrDA и иных беспроводных соединений) в соответствии с задачами (функциями) информационной системы, для решения которых такие соединения необходимы</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.1.2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Автоматический анализ событий информационной безопасности и выявление компьютерных инцидентов (компьютерных атак) </t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗНИ.7.1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Определение оператором типов носителей информации, подключение которых к информационной системе разрешено</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗИС.29.3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Регистрация событий, связанных с получением информации от другого пользователя </t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.3.2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Определение текущего и потенциального воздействия инцидента на организацию, идентификация затронутой инфраструктуры и определение соответствующего направления работы</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗНИ.5.3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Контроль доступа пользователей к разрешенным к использованию интерфейсов ввода (вывода)</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="77">
@@ -1956,2518 +1806,2266 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗНИ.5.1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Определение оператором интерфейсов средств вычислительной техники, которые могут использоваться для ввода (вывода) информации, разрешенных и (или) запрещенных к использованию в информационной системе</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ОДТ.7.1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Выделение групп однотипных узлов, объединенных каналами передачи информации и рассматриваемых как единый программно\002технический ресурс, информационной системы в целом и (или) отдельных ее сегментов (серверов приложений, файловых серверов, серверов баз данных, средств защиты информации и иных сегментов) для обеспечения доступности информации, сервисов и механизмов защиты информации </t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.28.3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Регистрация событий, связанных с отправкой информации другому пользователю </t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.4.1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Переоценка угроз безопасности информации, повлекших возникновение инцидента </t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.4.4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Проведение обучения персонала организации, включая сотрудников подразделения по защите информации, для повышения осведомленности в части обеспечения безопасности</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УПД.7.1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Оповещение пользователей в виде сообщения («окна») при его входе (до процесса аутентификации) о том, что реализованы меры защиты информации, а также о том, что при работепользователем должны быть соблюдены установленные правила и ограничения на работу с информацией</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УКФ.2.2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Оценка возможных последствий от внесения изменений в конфигурацию</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.17.1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Мониторинг и контроль использования сервисов электронной почты (в том числе с использованием web-интерфейса) при передаче информации на внешние адреса электронной почты для всего трафика электронной почты и для всех учетных записей сервисов электронной почты </t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УПД.9.1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Ограничение числа параллельных сеансов доступа для каждой учетной записи пользователя</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.4.3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve"> Актуализация необходимых политик, регламентов, инструкций</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.6.3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Обеспечение доступа к записям о компьютерных инцидентах и функциям управления механизмами выявления (регистрации) инцидентов только уполномоченным должностным лицам </t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УПД.0.1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Разработка правил и процедур (политик) управления доступом</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.3.1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Распределение средств защиты информации по разным уровням (эшелонам) защищаемой системы</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Совершенствование политик информационной безопасности</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗНИ.6.3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve"> Запрет действий по вводу (выводу) информации для пользователей, не имеющих полномочий на ввод (вывод) информации на машинные носители информации, и на носители информации, на которые запрещен ввод (вывод) информации</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ИНЦ.4.2</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Определение в соответствии с выявленными угрозами безопасности инофрмации мер защиты информации для минимизации выявленных угроз, в случае повторения инцидента</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.5</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Доведение до сотрудников информации о недопустимости несанкционированной передачи конфиденциальной информации за пределы организации и ответственности за нарушение установленных в организации правил</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УКФ.1.2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Идентификация сетевых подключений внешних информационных систем и сетей к информационной системе</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.6.1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Т</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Регламентация правил и процедур защиты информации о событиях безопасности</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>УКФ.0.1</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Разработка правил и процедур (политик) управления конфигурацией информационной (автоматизированной) системы</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗИС.20.1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Обеспечение доверенных маршрутов передачи данных между администратором (пользователем) и средствами защиты информации (функциями безопасности средств защиты информации), определяемыми оператором</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УКФ.1.1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Идентификация сетевых подключений информационной системы к внешним информационным системам и сетям</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.7</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Вынесение предупреждений и другие меры административного характера</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ОЦЛ.3.1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Ограничение прав пользователей по вводу информации в информационную систему (ограничение по вводу в определенные типы объектов доступа (объекты файловой системы, объекты баз данных, объекты прикладного и специального программного обеспечения) информации исходя из задач и полномочий, решаемых пользователем в информационной системе)</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.4</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Доведение до сотрудников информации о недопустимости несанкционированной передачи конфиденциальной информации за пределы организации и ответственности за нарушение установленных в организации правил</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.11</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Проведение аудита защищенности, тестирования на проникновение</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.1.3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Ретроспективный анализ данных и выявление не обнаруженных ранее компьютерных инцидентов </t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.6.2</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Обеспечение защиты средств выявления (регистрации) инцидентов и настроек механизмов выявления (регистрации) инцидентов</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.10</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Пересмотр и настройка минимальных прав доступа</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.32.2</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Предоставление доступа к параметрам(изменению параметров) настройки беспроводных соединений только администраторам информационной системы; обеспечение возможности реализации беспроводных соединений только через контролируемые интерфейсы (в том числе, путем применения средств защиты информации)</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УПД.8.1</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Оповещение пользователя после успешного входа о дате и времени предыдущего входа от имени этого пользователя</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>АВЗ.1.4</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Проведение периодических проверок компонентов информационной системы (автоматизированных рабочих мест, серверов, других средств вычислительной техники) на наличие вредоносных компьютерных программ (вирусов)</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.8</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Установка средств защиты информации</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.2.1</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Определение механизмов оперативного информирования пользователями службы безопасности о фактах выявления компьютерного инцидента. Назначение ответственного лица за информирование НКЦКИ.</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>АУД.1.3</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Контроль выполнения условий и сроков действия сертификатов соответствия на средства защиты информации и принятие мер, направленных на устранение выявленных недостатков</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗНИ.6.1</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Определение оператором типов носителей информации, ввод (вывод) информации на которые подлежит контролю</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УПД.10.1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Блокирование сеанса доступа пользователя после установленного Субъектом времени его бездействия (неактивности) или по запросу пользователя</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УПД.12.1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Поддержка (обновление, назначение, изменение) и сохранение атрибутов безопасности (меток безопасности), связанных с информацией в процессе ее хранения и обработки</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.6</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Ограничение доступа сотрудника к конфиденциальной информации</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.9</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Модернизация или замена компонентов информационных систем</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.3</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Разработка соответствующих регламентов</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.3.1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Назначение должностного лица (группы расследования), имеющего навыки проведения подобных расследований</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИНЦ.5.2</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Проведение дополнительного обучения сотрудников, ознакомление с правилами обращения с конфиденциальной информацией</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗИС.32.3</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Регистрация и анализ событий, связанных с использованием беспроводных соединений, в том числе для выявления попыток несанкционированного подключения к информационной системе через беспроводные соединения</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>УКФ.4.1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Контроль действий по внесению изменений в информационной системе</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗТС.3.1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Контроль и управление физическим доступом к техническим средствам, средствам защиты информации, средствам обеспечения функционирования, а также в помещения и сооружения, в которых они установлены, исключающие несанкционированный физический доступ к средствам обработки информации, средствам защиты информации и средствам обеспечения функционирования информационной системы и помещения и сооружения, в которых они установлены</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>СОВ.1.1</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t xml:space="preserve">Обнаружение (предотвращение) вторжений (компьютерных атак), направленных на преднамеренный несанкционированный доступ к информации, специальные воздействия на информацию (носители информации) в целях ее добывания, уничтожения, искажения и блокирования доступа к ней, с использованием систем обнаружения вторжений </t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.15.1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Реализация электронного почтового обмена с внешними сетями через ограниченное количество контролируемых точек</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.23.1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Определение перечня мобильного кода и технологий мобильного кода разрешенных и (или) запрещенных для использования в информационной системе</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.16.1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>И</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>С</t>
-        </is>
+          <t>Обнаружение и реагирование на поступление незапрашиваемых электронных сообщений (писем, документов) и иной информации, не относящихся к функционированию информационной системы (защита от спама)</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗИС.23.4</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>О</t>
-        </is>
+          <t>Исключение возможности использования запрещенного мобильного кода в информационной системе, а также внедрение мобильного кода в местах, не разрешенных для его установки</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.23.3</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>О</t>
-        </is>
+          <t>Регистрация и анализ событий, связанных с разработкой, приобретением или внедрением технологии мобильного кода</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.18.1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>О</t>
-        </is>
+          <t>Ограничение доступа к сайтам или типам сайтов, запрещенных к использованию</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗИС.23.2</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>О</t>
-        </is>
+          <t>Определение разрешенных мест распространения (серверы информационной системы) и использования мобильного кода (автоматизированные рабочие места, мобильные технические средства информационной системы) и функций информационной системы, для которых необходимо применение технологии мобильного кода</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ЗИС.14.2</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>О</t>
-        </is>
+          <t xml:space="preserve">Загрузка и выполнение на средствах вычислительной техники, определяемых оператором, операционной системы с машинных носителей информации, доступных только для чтения </t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>И</t>
+          <t>ИАФ.2.2</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>О</t>
-        </is>
+          <t>Аутентификация устройств с использованием соответствующих протоколов аутентификации или с применением криптографических методов защиты информации</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ИАФ.7.1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Ц</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Л</t>
-        </is>
+          <t>Организация защиты аутентификационной информации криптографическими методами шифрования трафика. Осуществление контроля целостности передаваемой аутентификационной информации. Организация защищенной передачи данных с использованием идентификаторов. Реализация методов динамической аутентификации.</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ИАФ.6.1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ц</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Л</t>
-        </is>
+          <t>Использование протоколов аутентификации, обеспечивающих взаимную аутентификацию пользователей</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ИНЦ.0.1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ц</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Л</t>
-        </is>
+          <t xml:space="preserve">Разработка правил и процедур (политик) реагирования на компьютерные инциденты </t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ОЦЛ.1.1</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ц</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Л</t>
-        </is>
+          <t xml:space="preserve">Контроль целостности программного обеспечения средств защиты информации, включая их обновления, по наличию имен (идентификаторов) и (или) по контрольным суммам компонентов средств защиты информации в процессе загрузки и (или) динамически в процессе работы информационной системы </t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ЗИС.17.5</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Ц</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Л</t>
-        </is>
+          <t>Мониторинг, контроль, блокирование копирования информации на переносные носители информации для всех средств вычислительной техники, мобильных устройств</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>О</t>
+          <t>ИАФ.3.2</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Ц</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Л</t>
-        </is>
+          <t>Формирование идентификатора, который однозначно идентифицирует пользователя и (или) устройство и присвоение идентификатора пользователю и (или) устройству</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИАФ.1.5</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>И</t>
-        </is>
+          <t>Аутентификация пользователей с применением биометрии</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИАФ.4.5</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>И</t>
-        </is>
+          <t>Обновление аутентификационной информации (замена средств аутентификации) с периодичностью, установленной оператором</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ОЦЛ.1.2</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>И</t>
-        </is>
+          <t>Контроль целостности компонентов программного обеспечения (за исключением средств защиты информации), определяемого оператором исходя из возможности реализации угроз безопасности информации, по наличию имен (идентификаторов) компонентов программного обеспечения и (или) по контрольным суммам в процессе загрузки и (или) динамически в процессе работы информационной системы</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ОПС.1.1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>И</t>
-        </is>
+          <t>Определение перечня (списка) компонентов программного обеспечения (файлов, объектов баз данных, хранимых процедур и иных компонентов), запускаемых автоматически при загрузке операционной системы средства вычислительной техники</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИАФ.4.1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>И</t>
-        </is>
+          <t>Определение должностного лица (администратора) оператора, ответственного за хранение, выдачу, инициализацию, блокирование средств аутентификации и принятие мер в случае утраты и (или) компрометации средств аутентификации</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ИАФ.4.6</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>И</t>
-        </is>
+          <t>Защита аутентификационной информации от неправомерного доступа к ней и модификации</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>З</t>
+          <t>ЗИС.7.1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Н</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>И</t>
-        </is>
+          <t>Применение специально созданных (эмулированных) ложных компонентов информационной системы или создание ложных информационных систем, предназначенных для обнаружения, регистрации и анализа действий нарушителей в процессе реализации угроз безопасности информации</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ИАФ.3.1</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>З</t>
-        </is>
+          <t>Определение должностного лица (администратора) оператора, ответственного за создание, присвоение и уничтожение идентификаторов пользователей и устройств</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ИАФ.2.1</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>З</t>
-        </is>
+          <t>Определение перечня типов устройств, подлежащих аутентифкации по логическим именам (имя устройства и (или) ID), логическим адресам (например, IP-адресам) и (или) по физическим адресам (например, МАС адресам) устройства или по комбинации имени, логического и (или) физического адресов устройства</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ЗИС.17.2</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>З</t>
-        </is>
+          <t>Обеспечить мониторинг и контроль использования сети Интернет для всех средств вычислительной техники, расположенных в группах сегментов вычислительной сети организации, предназначенных для обработки и (или) хранения информации конфиденциального характера, и для всех учетных записей, используемых для осуществления доступа к сети Интернет</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ИАФ.0.1</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>З</t>
-        </is>
+          <t>Разработка правил и процедур (политик) идентификации и аутентификации субъектов доступа и объектов доступа. Реализуется путём выполнения положений внутренних документов.</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ОПС.1.3</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>З</t>
-        </is>
+          <t>Ограничение запуска компонентов программного обеспечения от имени администраторов безопасности</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ОЦЛ.1.5</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>З</t>
-        </is>
+          <t>Обеспечение физической защиты технических средств информационной системы</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ИАФ.3.4</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>З</t>
-        </is>
+          <t>Блокирование идентификатора пользователя после установленного оператором времени неиспользования</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ИАФ.4.3</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>В</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>З</t>
-        </is>
+          <t>Установление характеристик пароля устойчивых к перебору (искользование нескольких алфавитов, специальных символов, регистра)</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ИАФ.4.4</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Блокирование (прекращение действия) и замена утерянных, скомпрометированных или поврежденных средств аутентификации</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ИАФ.3.3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Предотвращение повторного использования идентификатора пользователя и (или) устройства в течение установленного оператором периода времени</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ЗТС.1.1</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Защита информации, обрабатываемой техническими средствами, от ее утечки за счет побочных электромагнитных излучений и наводок</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ОПС.1.2</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Разрешение запуска компонентов программного обеспечения, включенных в перечень (список) программного обеспечения, запускаемого автоматически при загрузке операционной системы средства вычислительной техники</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.17.6</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Мониторинг и контроль печати и (или) копирования информации на бумажных носителях для сегментов вычислительной сети организации, предназначенных для обработки и (или) хранения информации конфиденциального характера, и для всех учетных записей, используемых для осуществления печати информации</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.2.1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Управление (контроль) входящими в информационную систему и исходящими из информационной системы информационными потоками на физической и (или) логической границе информационной системы (сегментов информационной системы)</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.14.1</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t xml:space="preserve">Выделение в составе операционной системы и прикладного программного обеспечения частей, немодифицируемых в процессе загрузки и выполнения, и размещение их на машинных носителях информации, доступных только для чтения </t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.17.12</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Контроль физического доступа с целью предотвращения визуального и слухового ознакомления с информацией во все помещения, в которых осуществляется обработка и (или) хранение информации конфиденциального характера</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>АВЗ.1.2</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t xml:space="preserve">Установка, конфигурирование и управление средствами антивирусной защиты </t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>УПД.3.3</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Контроль целостности программного обеспечения и аппаратных компонентов средств вычислительной техники</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>УПД.3.1</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Блокирование попыток несанкционированной загрузки нештатной операционной системы (среды) или недоступность информационных ресурсов для чтения или модификации в случае загрузки нештатной операционной системы</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.14.3</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t xml:space="preserve">Загрузка и выполнение на средствах вычислительной техники прикладного программного обеспечения, определяемого оператором, с машинных носителей информации, доступных только для чтения </t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОДТ.4.4</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t xml:space="preserve">Принятие мер для защиты резервируемой информации, обеспечивающих ее конфиденциальность, целостность и доступность </t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.17.11</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Контроль передачи (выноса) всех средств вычислительной техники независимо от осуществления обработки и (или) хранения информации конфиденциального характера</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ИПО.3.1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Проведение практических занятий с персоналом по правилам безопасной работы</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.13.1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Защита архивных файлов, параметров настройки средств защиты информации и программного обеспечения, иных данных, не подлежащих изменению в процессе обработки информации</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>АУД.1.2</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Контроль состава технических средств, программного обеспечения и средств защиты информации на соответствие сведениям действующей (актуализированной) эксплуатационной документации и принятие мер, направленных на устранение выявленных недостатков</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ОДТ.4.1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Резервное копирование информации на резервные машинные носители информации с установленной оператором периодичностью</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ЗИС.17.9</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Определение перечня действий возможных внутренних нарушителей, связанных с доступом к информационным активам конфиденциальной информации, подвергаемых мониторингу и анализу для цели выявления потенциальных утечек информации. При этом рекомендуется подвергать мониторингу и анализу</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.17.4</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Мониторинг содержания указанных выше ресурсов сети Интернет с целью возможной публикации информации конфиденциального характера</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОДТ.2.3</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t xml:space="preserve">Ввод в действие резервного технического средства, программного обеспечения, канала передачи информации или средства обеспечения функционирования при нарушении требуемых условий непрерывности функционирования информационной системы и доступности информации </t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗНИ.7.4</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Регистрация действий пользователей и событий по подключению к информационной системе носителей</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОДТ.2.1</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Определение сегментов информационной системы, в которых должно осуществляться резервирование технических средств, программного обеспечения, каналов передачи информации и средств обеспечения функционирования, а также перечня резервируемых средств исходя из требуемых условий обеспечения непрерывности функционирования информационной системы и доступности информации, установленных оператором</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ИПО.1.1</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Информирование персонала об угрозах безопасности информации и о правилах безопасной работы</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.17.8</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Блокирование возможности доступа к информации конфиденциального характера для всех средств вычислительной техники, используемых за пределами информационной инфраструктуры организации, вне зависимости от их использования для обработки и (или) хранения информации конфиденциального характера и всех информационных активов организации, к которым осуществляется удаленный доступ</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.8.1</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Воспроизведение ложных и (или) скрытие истинных отдельных информационных технологий и (или) структурно-функциональных характеристик информационной системы или ее сегментов, обеспечивающее навязывание у нарушителя ложного представления об истинных информационных технологиях и (или) структурно-функциональных характеристиках информационной системы</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ИПО.4.1</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Контроль осведомленности персонала об угрозах безопасности информации и о правилах безопасной работы</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.17.10</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Мониторинг и анализ всех действий возможных внутренних нарушителей, связанных с доступом к информационным активам конфиденциальной информации, согласно определенному перечню для всех учтенных информационных активов</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ЗИС.17.3</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t xml:space="preserve">Определение перечня ресурсов сети Интернет, на которых высока вероятность публикации информации конфиденциального характера </t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ЗИС.17.7</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Контроль (блокирование) возможности использования и (или) доступа к информации конфиденциального характера на переносных носителях информации за пределами информационной инфраструктуры организации для всех переносных носителей информации вне зависимости от их использования для обработки и (или) хранения информации конфиденциального характера</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОЦЛ.4.1</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Контроль точности, полноты и правильности данных, вводимых в информационную систему, обеспечивается путем установления и проверки соблюдения форматов ввода данных, синтаксических, семантических и (или) иных правил ввода информации в информационную систему (допустимые наборы символов, размерность, область числовых значений, допустимые значения, количество символов) для подтверждения того, что ввод информации соответствует заданному оператором формату и содержанию.</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОДТ.2.2</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t xml:space="preserve">Применение резервных (дублирующих) технических средств, программного обеспечения, каналов передачи информации и (или) средств обеспечения функционирования информационной системы, обеспечивающих требуемые условия непрерывности функционирования информационной системы и доступности информации </t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ИПО.2.1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Обучение персонала правилам безопасной работы</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>АУД.7.1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Мониторинг (просмотр и анализ) записей регистрации (аудита) должен проводиться для всех событий, подлежащих регистрации, и с периодичностью, установленной оператором, и обеспечивающей своевременное выявление признаков инцидентов безопасности в информационной системе</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОДТ.1.1</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Определение сегментов информационной системы, в которых должны применяться отказоустойчивые технические средства, обладающие свойствами сохранять свою работоспособность после отказа одного или нескольких их составных частей, и перечня таких средств исходя из требуемых условий обеспечения непрерывности функционирования информационной системы и доступности информации, установленных оператором</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОПС.2.1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Определение компонентов программного обеспечения (состава и конфигурации), подлежащих установке после загрузки операционной системы</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>АУД.8.2</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Реагирование на сбои при регистрации событий безопасности путем изменения администраторами параметров сбора, записи и хранения информации о событиях безопасности, в том числе отключение записи информации о событиях безопасности от части компонентов информационной системы, запись поверх устаревших хранимых записей событий безопасности</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОДТ.1.2</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Определение предельных (пороговых) значений характеристик (коэффициента) готовности, показывающего, какую долю времени от общего времени работы информационной системы техническое средство (техническое решение) находится в рабочем состоянии, и характеристик надежности (требуемое значение вероятности отказа в единицу времени) исходя из требуемых условий обеспечения непрерывности функционирования информационной системы и доступности информации, установленных оператором</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОДТ.1.4</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t xml:space="preserve">Контроль с установленной оператором периодичностью за значениями характеристик (коэффициентов) готовности и надежности технических средств и реагирование на ухудшение значений данных характеристик (инициализация плана восстановления работоспособности и иные методы реагирования) </t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>АУД.7.2</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Планирование и проведение мероприятий по реагированию на выявленные инциденты безопасности</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОПС.2.2</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Настройка параметров установки компонентов программного обеспечения, обеспечивающая исключение установки (если осуществимо) компонентов программного обеспечения, использование которых не требуется для реализации информационной технологии</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>АУД.1.1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Контроль соответствия состава технических средств, программного обеспечения и средств защиты информации приведенному в эксплуатационной документации с целью поддержания актуальной (установленной в соответствии с эксплуатационной документацией) конфигурации информационной системы и принятие мер, направленных на устранение выявленных недостатков</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ЗИС.34.1</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Повышение характеристик производительности телекоммуникационного оборудования и каналов передачи</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
         <v>1</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ОДТ.3.1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Контроль безотказного функционирования технических средств, обнаружение и локализация отказов функционирования, принятие мер по восстановлению отказавших средств и их тестирования</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОДТ.1.3</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t xml:space="preserve">Применение в информационной системе технических средств с установленными оператором характеристиками (коэффициентом) готовности и надежности, обеспечивающих требуемые условия непрерывности функционирования информационной системы и доступности информации </t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>ОПС.2.3</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Конфигурация устанавливаемых компонентов программного обеспечения (в том числе конфигурации, предусматривающие включение в домен, или не включение в домен)</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>А</t>
+          <t>ЗИС.34.2</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>У</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Резервирование информации и технических средств, программного обеспечения, каналов передачи информации</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>У</t>
+          <t>АУД.8.1</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>П</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Д</t>
-        </is>
+          <t>Предупреждение (сигнализация, индикация) администраторов о сбоях (аппаратных и программных ошибках, сбоях в механизмах сбора информации или переполнения объема (емкости) памяти) при регистрации событий безопасности)</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>С</t>
+          <t>ОПС.2.4</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>О</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>В</t>
-        </is>
+          <t>Контроль за установкой компонентов программного обеспечения (состав компонентов, параметры установки, конфигурация компонентов)</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
